--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonyj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonyj\source\repos\ChainingEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830BD4A2-DD76-443D-878F-8F7662BA661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631DA2D6-69F3-4D48-8541-BCCFBBAB3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="3420" windowWidth="13215" windowHeight="11865" xr2:uid="{2E64AB1F-7E70-437D-94E4-748871AE8AAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18720" xr2:uid="{2E64AB1F-7E70-437D-94E4-748871AE8AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonyj\source\repos\ChainingEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631DA2D6-69F3-4D48-8541-BCCFBBAB3EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286920D7-40CC-4504-BEE3-91F19334FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18720" xr2:uid="{2E64AB1F-7E70-437D-94E4-748871AE8AAF}"/>
+    <workbookView xWindow="16710" yWindow="1800" windowWidth="19215" windowHeight="13470" activeTab="3" xr2:uid="{2E64AB1F-7E70-437D-94E4-748871AE8AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>SINTOMAS</t>
   </si>
@@ -118,14 +121,91 @@
   </si>
   <si>
     <t>Dolor de cabeza</t>
+  </si>
+  <si>
+    <t>Postivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Tos</t>
+  </si>
+  <si>
+    <t>Cansancio</t>
+  </si>
+  <si>
+    <t>Perdida del gusto y olfato</t>
+  </si>
+  <si>
+    <t>Diarrea</t>
+  </si>
+  <si>
+    <t>Dificultad para respirar o disena</t>
+  </si>
+  <si>
+    <t>Sin sintoma</t>
+  </si>
+  <si>
+    <t>Ocasional</t>
+  </si>
+  <si>
+    <t>Tos seca</t>
+  </si>
+  <si>
+    <t>No tengo síntoma</t>
+  </si>
+  <si>
+    <t>Sin síntoma</t>
+  </si>
+  <si>
+    <t>Tos con flemas</t>
+  </si>
+  <si>
+    <t>Tos aguda</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Intenso</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Si tengo</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Muy frecuente</t>
+  </si>
+  <si>
+    <t>Mucha</t>
+  </si>
+  <si>
+    <t>Nivel de gravedad COVID-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,9 +233,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,6 +252,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620594</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7794A085-BACB-4829-AABE-C7C40D9C1129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10526594" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608381</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90788F8A-55D7-4F2E-932A-963055E5E6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9752381" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334804</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8F00B3-C6DE-4C58-BE0E-482EDE1F2577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10240804" cy="5087060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80692416-546D-40A0-A8B2-D49C65B18C71}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,4 +869,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777490C-FEDD-466A-B131-144146F993B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E134788F-ACE4-4FB8-A20F-5FE06BAB6E24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE2DF59-8FB8-4037-BDEE-DC31DA2DD545}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>